--- a/biology/Botanique/Guarnaccia/Guarnaccia.xlsx
+++ b/biology/Botanique/Guarnaccia/Guarnaccia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La guarnaccia  est un cépage blanc d'Italie.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage originaire de Sicile est classé recommandé dans les provinces de Naples en Campanie et de Cosenza en Calabre.
 Il s'emploie généralement en assemblage avec d'autres cépages comme dans la D.O.C. calabraise de Verbicaro.
@@ -544,9 +558,11 @@
           <t>Homonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom de guarnaccia est apparenté à celui du grenache (catalan garnatxa), bien qu'il ne s'agisse pas de sa forme blanche. Il dérive du nom de cépage Vernaccia, probablement emprunté au village de Vernazza en Ligurie[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom de guarnaccia est apparenté à celui du grenache (catalan garnatxa), bien qu'il ne s'agisse pas de sa forme blanche. Il dérive du nom de cépage Vernaccia, probablement emprunté au village de Vernazza en Ligurie. 
 Il s'applique également :
 à la vernaccia bianca, un cépage blanc
 et sous la dénomination guarnaccia nera :
@@ -580,7 +596,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La guarnaccia est également connue sous les noms de guarnaccia bianca ou cannamelu.
 </t>
